--- a/biology/Zoologie/Colisa/Colisa.xlsx
+++ b/biology/Zoologie/Colisa/Colisa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colisa est un genre de poissons de la famille des Osphronemidae. Ce genre n'est pas reconnu par plusieurs organismes, dont le NCBI et FishBase, qui lui préfèrent celui de Trichogaster.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colisa chuna (Hamilton, 1822) - le gourami miel
 Colisa fasciata (Bloch et Schneider, 1801) - le gourami bariolé
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre, Colisa, a été repris par l'auteur[3] du nom employé au Bengale pour désigner ces espèces de poissons et notamment celle décrite sous le nom de Colisa vulgaire (Colisa vulgaris / Trichopodus colisa Buch., actuellement Colisa fasciata).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre, Colisa, a été repris par l'auteur du nom employé au Bengale pour désigner ces espèces de poissons et notamment celle décrite sous le nom de Colisa vulgaire (Colisa vulgaris / Trichopodus colisa Buch., actuellement Colisa fasciata).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cuvier in Cuvier &amp; Valenciennes, 1831 : Histoire naturelle des poissons - Chapitre IV : Des Colisas. vol. 7 p. 359-371 (texte intégral).</t>
         </is>
